--- a/frontend/public/QuestionUploadFormat.xlsx
+++ b/frontend/public/QuestionUploadFormat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/17bcff25112ccd68/Desktop/Sahay-CRM-New/sahay-crm/frontend/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiva\OneDrive\Desktop\Sahay-CRM-New\sahay-crm\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{AB4FC0E2-542B-4990-81AA-9EA5CA58DA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C603242-150B-45C5-948F-875841F050E9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77430ADC-65C6-4C23-A789-CB7496F44364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AA01099E-F8D1-44C6-8E2B-2DF05EB55DB1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>S.No</t>
   </si>
@@ -93,13 +93,70 @@
   </si>
   <si>
     <t>❌ "Your answer is incorrect. The correct answer is ** "Correct! You’re absolutely right**."</t>
+  </si>
+  <si>
+    <t>Which certificate is required for food-related businesses?</t>
+  </si>
+  <si>
+    <t>APEDA Certificate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSSAI Certificate </t>
+  </si>
+  <si>
+    <t>NSIC Certificate</t>
+  </si>
+  <si>
+    <t>🎉 "Excellent! That’s correct."</t>
+  </si>
+  <si>
+    <t>❌ "Your answer is incorrect. The correct answer is ** "Excellent! That’s correct**."</t>
+  </si>
+  <si>
+    <t>IEC Code</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What is the validity period for an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>APEDA Certificate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>10 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lifetime </t>
+  </si>
+  <si>
+    <t>🎉 "Great! That’s the right answer."</t>
+  </si>
+  <si>
+    <t>❌ "Your answer is incorrect. The correct answer is ** "Great! That’s the right answer**."</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +173,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -143,13 +207,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -158,6 +217,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -494,50 +568,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419441D0-064F-4511-A1E4-0CA95819DD47}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -545,28 +619,28 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="6">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>4</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>2</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -574,13 +648,13 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -589,14 +663,72 @@
       <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="8" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/public/QuestionUploadFormat.xlsx
+++ b/frontend/public/QuestionUploadFormat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiva\OneDrive\Desktop\Sahay-CRM-New\sahay-crm\frontend\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/17bcff25112ccd68/Desktop/Sahay-CRM-New/sahay-crm/frontend/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77430ADC-65C6-4C23-A789-CB7496F44364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{77430ADC-65C6-4C23-A789-CB7496F44364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19CB24AE-DC06-4312-8522-A16E633FDA2B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AA01099E-F8D1-44C6-8E2B-2DF05EB55DB1}"/>
   </bookViews>
@@ -571,11 +571,12 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="8.88671875" style="4"/>
     <col min="2" max="2" width="17.77734375" style="7" customWidth="1"/>
     <col min="3" max="3" width="17.21875" style="4" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" style="4" customWidth="1"/>
@@ -587,7 +588,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -616,7 +617,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -645,7 +646,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -674,7 +675,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -703,7 +704,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">

--- a/frontend/public/QuestionUploadFormat.xlsx
+++ b/frontend/public/QuestionUploadFormat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/17bcff25112ccd68/Desktop/Sahay-CRM-New/sahay-crm/frontend/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{77430ADC-65C6-4C23-A789-CB7496F44364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19CB24AE-DC06-4312-8522-A16E633FDA2B}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{77430ADC-65C6-4C23-A789-CB7496F44364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80E31B53-438E-4882-8AA0-790B55B67A4E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AA01099E-F8D1-44C6-8E2B-2DF05EB55DB1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>S.No</t>
   </si>
@@ -150,6 +150,48 @@
   </si>
   <si>
     <t>❌ "Your answer is incorrect. The correct answer is ** "Great! That’s the right answer**."</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Under which section do startups receive </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>tax benefits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> for 3 years?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Section 80-IAC </t>
+  </si>
+  <si>
+    <t>Section 56</t>
+  </si>
+  <si>
+    <t>Section 80-C</t>
+  </si>
+  <si>
+    <t>Section 45</t>
+  </si>
+  <si>
+    <t>🗣️ "Section 80-IAC provides tax benefits for startups for 3 consecutive years."</t>
+  </si>
+  <si>
+    <t>🗣️ "If you were not aware of this or shared incorrect information before, ensure that from now on, you always share the correct information with clients."</t>
   </si>
 </sst>
 </file>
@@ -207,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -233,6 +275,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -249,6 +292,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -568,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419441D0-064F-4511-A1E4-0CA95819DD47}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -732,6 +779,35 @@
         <v>30</v>
       </c>
     </row>
+    <row r="6" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="shivangi@startupsahay.com" xr:uid="{C7E1D04B-5145-4F95-BE3A-1D0584B902B1}"/>

--- a/frontend/public/QuestionUploadFormat.xlsx
+++ b/frontend/public/QuestionUploadFormat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/17bcff25112ccd68/Desktop/Sahay-CRM-New/sahay-crm/frontend/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{77430ADC-65C6-4C23-A789-CB7496F44364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80E31B53-438E-4882-8AA0-790B55B67A4E}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{77430ADC-65C6-4C23-A789-CB7496F44364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32B4386B-7096-421C-8DED-776CD96E0891}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AA01099E-F8D1-44C6-8E2B-2DF05EB55DB1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>S.No</t>
   </si>
@@ -192,6 +192,15 @@
   </si>
   <si>
     <t>🗣️ "If you were not aware of this or shared incorrect information before, ensure that from now on, you always share the correct information with clients."</t>
+  </si>
+  <si>
+    <t>What is the minimum number of shareholders required for a Private Limited Company?</t>
+  </si>
+  <si>
+    <t>🎉 "Perfect! That’s correct."</t>
+  </si>
+  <si>
+    <t>❌ "Your answer is incorrect. The correct answer is ** "Perfect! That’s correct**."</t>
   </si>
 </sst>
 </file>
@@ -615,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419441D0-064F-4511-A1E4-0CA95819DD47}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -808,6 +817,35 @@
         <v>37</v>
       </c>
     </row>
+    <row r="7" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2</v>
+      </c>
+      <c r="E7" s="9">
+        <v>3</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5</v>
+      </c>
+      <c r="G7" s="9">
+        <v>2</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="shivangi@startupsahay.com" xr:uid="{C7E1D04B-5145-4F95-BE3A-1D0584B902B1}"/>

--- a/frontend/public/QuestionUploadFormat.xlsx
+++ b/frontend/public/QuestionUploadFormat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/17bcff25112ccd68/Desktop/Sahay-CRM-New/sahay-crm/frontend/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{77430ADC-65C6-4C23-A789-CB7496F44364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32B4386B-7096-421C-8DED-776CD96E0891}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{77430ADC-65C6-4C23-A789-CB7496F44364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3D0AC95-2E55-433A-AAC5-B5AE32061B20}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AA01099E-F8D1-44C6-8E2B-2DF05EB55DB1}"/>
   </bookViews>
@@ -149,9 +149,6 @@
     <t>🎉 "Great! That’s the right answer."</t>
   </si>
   <si>
-    <t>❌ "Your answer is incorrect. The correct answer is ** "Great! That’s the right answer**."</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Under which section do startups receive </t>
     </r>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>❌ "Your answer is incorrect. The correct answer is ** "Perfect! That’s correct**."</t>
+  </si>
+  <si>
+    <t>❌ "Your answer is incorrect. The correct answer is ** "Perfect! That’s correct**."                                                                                                                      Hueyy!!</t>
   </si>
 </sst>
 </file>
@@ -626,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419441D0-064F-4511-A1E4-0CA95819DD47}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J6" sqref="J5:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,7 +759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -785,7 +785,7 @@
         <v>29</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
@@ -793,28 +793,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
@@ -822,7 +822,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="9">
         <v>1</v>
@@ -840,10 +840,10 @@
         <v>2</v>
       </c>
       <c r="H7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/public/QuestionUploadFormat.xlsx
+++ b/frontend/public/QuestionUploadFormat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/17bcff25112ccd68/Desktop/Sahay-CRM-New/sahay-crm/frontend/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiva\OneDrive\Desktop\Sahay-CRM-New\sahay-crm\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{77430ADC-65C6-4C23-A789-CB7496F44364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3D0AC95-2E55-433A-AAC5-B5AE32061B20}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669E029A-C221-4452-AEEB-9757B3C9C559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AA01099E-F8D1-44C6-8E2B-2DF05EB55DB1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>S.No</t>
   </si>
@@ -202,12 +202,51 @@
   <si>
     <t>❌ "Your answer is incorrect. The correct answer is ** "Perfect! That’s correct**."                                                                                                                      Hueyy!!</t>
   </si>
+  <si>
+    <t>1. What percentage of the tender value is the EMD (Earnest Money Deposit)?</t>
+  </si>
+  <si>
+    <t>o	🎉 "Well done! Your answer is correct."</t>
+  </si>
+  <si>
+    <r>
+      <t>❌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "Your answer is incorrect. The correct answer is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>."                                                                                                                                                                                                                                                                                                                                            sorry!!!</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +275,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -258,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -285,6 +337,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -301,10 +363,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -624,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419441D0-064F-4511-A1E4-0CA95819DD47}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J6" sqref="J5:J6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -846,6 +904,35 @@
         <v>39</v>
       </c>
     </row>
+    <row r="8" spans="1:9" ht="188.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="shivangi@startupsahay.com" xr:uid="{C7E1D04B-5145-4F95-BE3A-1D0584B902B1}"/>
